--- a/biology/Botanique/Nez_de_chat/Nez_de_chat.xlsx
+++ b/biology/Botanique/Nez_de_chat/Nez_de_chat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Nez de chat est une variété de pomme à cidre française du Pays d'Othe. Gérard Hotte la cultive et la presse à Eaux-Puiseaux.
-Le Pays d'Othe [les] connait depuis l'ère moderne [...] telles que « la pomme nez de chat » ou encore « la poire à curé » . L’acte de 1559 citait des « pommiers francs » [etc.][1].
-« Une des grandes spécialités du pays d'Othe, dans l'Aube, que ce cidre au goût de pierre à feu. La région est réputée pour abriter d'anciennes variétés de pommes aux noms peu usuels tels l'avrolles, le nez de chat, le verrolot, le nez plat »[2].
-« Ici, dans le sud-ouest de Troyes, les saveurs harmonieuses viennent d'un savant mélange de Cul d'Oison, d'Avrolles, Nez de Chat, Chevance, Judeline, Judaine, Sauvageon Barré ou Pommate de Bucey. Au total, plus d'une soixantaine de variétés de pommiers poussant sur les sols d'argile et de silex. Fières d'être pour la plupart tardives, les petites reines rouges, jaunes ou vert strié apportent leur caractère acidulé, amer, doux ou acide. "Il faut en plus un petit goût de pierre à fusil", nous confie un ancêtre »[3]
+Le Pays d'Othe [les] connait depuis l'ère moderne [...] telles que « la pomme nez de chat » ou encore « la poire à curé » . L’acte de 1559 citait des « pommiers francs » [etc.].
+« Une des grandes spécialités du pays d'Othe, dans l'Aube, que ce cidre au goût de pierre à feu. La région est réputée pour abriter d'anciennes variétés de pommes aux noms peu usuels tels l'avrolles, le nez de chat, le verrolot, le nez plat ».
+« Ici, dans le sud-ouest de Troyes, les saveurs harmonieuses viennent d'un savant mélange de Cul d'Oison, d'Avrolles, Nez de Chat, Chevance, Judeline, Judaine, Sauvageon Barré ou Pommate de Bucey. Au total, plus d'une soixantaine de variétés de pommiers poussant sur les sols d'argile et de silex. Fières d'être pour la plupart tardives, les petites reines rouges, jaunes ou vert strié apportent leur caractère acidulé, amer, doux ou acide. "Il faut en plus un petit goût de pierre à fusil", nous confie un ancêtre »
 </t>
         </is>
       </c>
